--- a/tabela.xlsx
+++ b/tabela.xlsx
@@ -21,7 +21,7 @@
     <t>Modelo</t>
   </si>
   <si>
-    <t>Densidade</t>
+    <t>Diametro</t>
   </si>
   <si>
     <t>taxa_transmissao</t>
@@ -69,10 +69,10 @@
     <t xml:space="preserve">Pequenos Mundos</t>
   </si>
   <si>
-    <t xml:space="preserve">Alta Densidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baixa Densidade</t>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Pequeno</t>
   </si>
   <si>
     <t>Aleatórias</t>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">Livre de Escala</t>
   </si>
   <si>
-    <t>Normal</t>
+    <t>Médio</t>
   </si>
   <si>
     <t xml:space="preserve">Doença B</t>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -116,6 +116,13 @@
     <font>
       <sz val="11.000000"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -256,7 +263,8 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="4" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -265,6 +273,7 @@
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,8 +293,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,7 +343,7 @@
   <tableColumns count="3">
     <tableColumn id="1" name="Doença"/>
     <tableColumn id="2" name="Modelo"/>
-    <tableColumn id="3" name="Densidade"/>
+    <tableColumn id="3" name="Diametro"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -803,13 +815,13 @@
     <col bestFit="1" customWidth="1" min="1" max="1" width="18.7109375"/>
     <col bestFit="1" customWidth="1" min="2" max="2" width="18.90234375"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="18.8125"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="15.00390625"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" width="17.3828125"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" width="17.57421875"/>
+    <col customWidth="1" min="4" max="4" width="19.00390625"/>
+    <col customWidth="1" min="5" max="5" width="20.140625"/>
+    <col customWidth="1" min="6" max="6" width="19.421875"/>
     <col bestFit="1" customWidth="1" min="7" max="7" width="21.57421875"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" width="14.8125"/>
-    <col bestFit="1" customWidth="1" min="9" max="9" width="17.00390625"/>
-    <col bestFit="1" customWidth="1" min="10" max="10" width="17.57421875"/>
+    <col customWidth="1" min="8" max="8" width="18.57421875"/>
+    <col customWidth="1" min="9" max="9" width="19.140625"/>
+    <col customWidth="1" min="10" max="10" width="22.7109375"/>
     <col bestFit="1" customWidth="1" min="11" max="11" width="16.90234375"/>
     <col bestFit="1" customWidth="1" min="12" max="12" width="24.421875"/>
     <col bestFit="1" customWidth="1" min="13" max="13" width="19.28125"/>
@@ -825,7 +837,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -869,63 +881,63 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>0.80000000000000004</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>0.40000000000000002</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>0.029999999999999999</v>
       </c>
-      <c r="G2" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="6">
         <v>100</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="6">
         <v>9700</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <v>9700</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <v>407</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
         <v>3366</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
         <v>15</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="6">
         <v>193.99000000000001</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="6">
         <v>646.55999999999995</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="7">
         <v>418035.66999999998</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="1">
@@ -964,18 +976,18 @@
       <c r="O3" s="1">
         <v>698.60000000000002</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>488046.37</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1">
@@ -1014,18 +1026,18 @@
       <c r="O4" s="1">
         <v>1071.51</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>1148126.23</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1">
@@ -1064,118 +1076,118 @@
       <c r="O5" s="1">
         <v>1172.8399999999999</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>1375552.23</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="15">
         <v>0.80000000000000004</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>0.40000000000000002</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="15">
         <v>0.029999999999999999</v>
       </c>
-      <c r="G6" s="12">
-        <v>10000</v>
-      </c>
-      <c r="H6" s="12">
+      <c r="G6" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H6" s="15">
         <v>100</v>
       </c>
-      <c r="I6" s="12">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="12">
-        <v>10000</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="I6" s="15">
+        <v>10000</v>
+      </c>
+      <c r="J6" s="15">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="15">
         <v>388</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="15">
         <v>5575</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="15">
         <v>8</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="15">
         <v>199.99000000000001</v>
       </c>
-      <c r="O6" s="12">
+      <c r="O6" s="15">
         <v>888</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="16">
         <v>788541.77000000002</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>0.75</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>0.01</v>
       </c>
-      <c r="G7" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H7" s="6">
         <v>100</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="6">
         <v>5378</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <v>5378</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <v>20</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
         <v>457</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="6">
         <v>37</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="6">
         <v>107.55</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="6">
         <v>144.53</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="7">
         <v>20888.040000000001</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1">
@@ -1214,18 +1226,18 @@
       <c r="O8" s="1">
         <v>0.22</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="10">
         <v>0.050000000000000003</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
@@ -1264,18 +1276,18 @@
       <c r="O9" s="1">
         <v>1082.03</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="10">
         <v>1170793.1899999999</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="1">
@@ -1314,118 +1326,118 @@
       <c r="O10" s="1">
         <v>1315.6400000000001</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="10">
         <v>1730912.3899999999</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="15">
         <v>0.29999999999999999</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="15">
         <v>0.75</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="15">
         <v>0.01</v>
       </c>
-      <c r="G11" s="12">
-        <v>10000</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="G11" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="15">
         <v>100</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="15">
         <v>9142</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>9142</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="15">
         <v>23</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="15">
         <v>2793</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="15">
         <v>12</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="15">
         <v>182.83000000000001</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="15">
         <v>555.65999999999997</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="16">
         <v>308757.83000000002</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>0.5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>0.5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>0.20000000000000001</v>
       </c>
-      <c r="G12" s="4">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="6">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="6">
         <v>100</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>8983</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>8983</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <v>1500</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
         <v>2117</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <v>21</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <v>179.65000000000001</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="6">
         <v>473.54000000000002</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="7">
         <v>224242.79000000001</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1">
@@ -1464,18 +1476,18 @@
       <c r="O13" s="1">
         <v>0.31</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="10">
         <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="1">
@@ -1514,18 +1526,18 @@
       <c r="O14" s="1">
         <v>986.25</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="10">
         <v>972680.87</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="1">
@@ -1564,57 +1576,57 @@
       <c r="O15" s="1">
         <v>1257.5</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="10">
         <v>1581305.5900000001</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="15">
         <v>0.5</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>0.5</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="15">
         <v>0.20000000000000001</v>
       </c>
-      <c r="G16" s="12">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="G16" s="15">
+        <v>10000</v>
+      </c>
+      <c r="H16" s="15">
         <v>100</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="15">
         <v>9947</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="15">
         <v>9947</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="15">
         <v>1646</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="15">
         <v>4082</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="15">
         <v>9</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="15">
         <v>198.93000000000001</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O16" s="15">
         <v>762.12</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="16">
         <v>580829.12</v>
       </c>
     </row>
